--- a/admin-server/src/main/resources/static/promotion/exportTemplates/coupon_activity_store_template.xlsx
+++ b/admin-server/src/main/resources/static/promotion/exportTemplates/coupon_activity_store_template.xlsx
@@ -19,15 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>d344b111d45346eea8bc37868d78e918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qqqqqqq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>惠小店ID</t>
   </si>
@@ -62,19 +54,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,8 +94,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -396,19 +395,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
